--- a/automation/sourcecode/commons/interfaceReference/output/interface_out.xlsx
+++ b/automation/sourcecode/commons/interfaceReference/output/interface_out.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="8325"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7815" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8826" uniqueCount="619">
   <si>
     <t>-</t>
   </si>
@@ -1587,6 +1587,18 @@
     <t>java:global/EnhancesysManagement/IntegrationServices/UPLOADRejectionFilePreparation!com.enhancesys.integration.services.interfaces.rejection.RejectionFilePreparation</t>
   </si>
   <si>
+    <t>INTHDP018 - Stock Taking Activity</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1152=0 0 * * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PULLDATA_FROM_POSTGERS_1152=0 30 1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22 * * ? *</t>
+  </si>
+  <si>
+    <t>INTDW024 - Secondary MOBO</t>
+  </si>
+  <si>
     <t>DAILY_DUMP - Outlet Sales</t>
   </si>
   <si>
@@ -1617,7 +1629,7 @@
     <t>SCHEDULAR_FOR_PULLDATA_FROM_POSTGERS_1158=0 30 6 * * ? *</t>
   </si>
   <si>
-    <t>INTDWH020 � Quality of Acquisition</t>
+    <t>INTDWH020 - Quality of Acquisition</t>
   </si>
   <si>
     <t>SCHEDULAR_FOR_PROCESS_FILE_1159=0 30 2 1 * ? *</t>
@@ -1648,6 +1660,225 @@
   </si>
   <si>
     <t>INTTNM008 - Reserve Stock</t>
+  </si>
+  <si>
+    <t>INTHDP001 - Site Mapping</t>
+  </si>
+  <si>
+    <t>java:global/EnhancesysManagement/IntegrationServices/KPIMasterProcessor!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
+  </si>
+  <si>
+    <t>java:global/EnhancesysManagement/IntegrationServices/KpiMasterRejectionFilePreparation!com.enhancesys.integration.services.interfaces.rejection.RejectionFilePreparation</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1165=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1165=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1165=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP002 - Primary MOBO</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1166=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1166=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1166=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP003 - Secondary MOBO</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1167=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1167=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1167=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP004 - Daily SIM Selling Outlet (SSO)</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1168=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1168=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1168=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP005 - RGU-GA with Injection</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1169=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1169=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1169=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP006 - Tertiary Sales</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1170=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1170=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1170=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP007 - Organization MOBO Balance</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1171=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1171=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1171=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP008 - Prepaid Service Revenue</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1172=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1172=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1172=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP009 - MOBO Usage Revenue</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1173=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1173=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1173=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP010 - Acquisition Revenue</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1174=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1174=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1174=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP011 - Low revenue Sites</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1175=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1175=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1175=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP012 - Sites with RGU-GA</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1176=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1176=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1176=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP013 - Cross Selling Cluster Reload</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1177=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1177=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP014 - Cross Selling Area Data Package</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1178=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1178=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1178=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP015 - Outlet Program Achiever</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1179=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1179=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1179=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP016 - Ontime Allocation Payment</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1180=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1180=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1180=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP017 - URO 20K</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1181=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1181=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1181=0 0 5 * * ? *</t>
+  </si>
+  <si>
+    <t>INTHDP018 - Outlet SP Tagging</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1182=0 0 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1182=0 15 2 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1182=0 0 5 * * ? *</t>
   </si>
 </sst>
 </file>
@@ -2538,7 +2769,7 @@
   <dimension ref="A1:AM351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
@@ -2548,7 +2779,7 @@
   <cols>
     <col min="1" max="2" customWidth="true" width="15.7109375" collapsed="false"/>
     <col min="3" max="3" customWidth="true" width="35.7109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="120.7109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="37.42578125" collapsed="false"/>
     <col min="5" max="5" customWidth="true" width="40.7109375" collapsed="false"/>
     <col min="6" max="14" customWidth="true" width="30.7109375" collapsed="false"/>
     <col min="15" max="39" customWidth="true" width="25.7109375" collapsed="false"/>
@@ -20644,10 +20875,10 @@
     </row>
     <row r="153" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="n">
-        <v>1156.0</v>
+        <v>1152.0</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>235.0</v>
+        <v>231.0</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>521</v>
@@ -20656,92 +20887,92 @@
         <v>93</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G153" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD153" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="H153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB153" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD153" s="1" t="s">
+      <c r="AE153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG153" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="AE153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF153" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG153" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="AH153" s="1" t="s">
         <v>0</v>
       </c>
@@ -20758,39 +20989,39 @@
         <v>0</v>
       </c>
       <c r="AM153" s="1" t="n">
-        <v>1156.0</v>
+        <v>1152.0</v>
       </c>
     </row>
     <row r="154" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="n">
-        <v>1157.0</v>
+        <v>1153.0</v>
       </c>
       <c r="B154" s="2" t="n">
-        <v>236.0</v>
+        <v>232.0</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>522</v>
+        <v>43</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>0</v>
@@ -20799,7 +21030,7 @@
         <v>0</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="N154" s="1" t="s">
         <v>0</v>
@@ -20844,13 +21075,13 @@
         <v>0</v>
       </c>
       <c r="AB154" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AC154" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AD154" s="1" t="s">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="AE154" s="1" t="s">
         <v>0</v>
@@ -20859,7 +21090,7 @@
         <v>0</v>
       </c>
       <c r="AG154" s="1" t="s">
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="AH154" s="1" t="s">
         <v>0</v>
@@ -20877,18 +21108,18 @@
         <v>0</v>
       </c>
       <c r="AM154" s="1" t="n">
-        <v>1157.0</v>
+        <v>1153.0</v>
       </c>
     </row>
     <row r="155" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="n">
-        <v>1158.0</v>
+        <v>1156.0</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>237.0</v>
+        <v>235.0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>93</v>
@@ -20900,7 +21131,7 @@
         <v>0</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>0</v>
@@ -20969,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="AD155" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AE155" s="1" t="s">
         <v>0</v>
@@ -20978,7 +21209,7 @@
         <v>0</v>
       </c>
       <c r="AG155" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>0</v>
@@ -20996,109 +21227,109 @@
         <v>0</v>
       </c>
       <c r="AM155" s="1" t="n">
-        <v>1158.0</v>
+        <v>1156.0</v>
       </c>
     </row>
     <row r="156" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="n">
-        <v>1159.0</v>
+        <v>1157.0</v>
       </c>
       <c r="B156" s="2" t="n">
-        <v>238.0</v>
+        <v>236.0</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB156" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD156" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AE156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG156" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="K156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M156" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O156" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD156" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="AE156" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="AF156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG156" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="AH156" s="1" t="s">
         <v>0</v>
       </c>
@@ -21115,33 +21346,33 @@
         <v>0</v>
       </c>
       <c r="AM156" s="1" t="n">
-        <v>1159.0</v>
+        <v>1157.0</v>
       </c>
     </row>
     <row r="157" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="n">
-        <v>1160.0</v>
+        <v>1158.0</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>238.0</v>
+        <v>237.0</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>43</v>
+        <v>526</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>0</v>
@@ -21201,13 +21432,13 @@
         <v>0</v>
       </c>
       <c r="AB157" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AC157" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AD157" s="1" t="s">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="AE157" s="1" t="s">
         <v>0</v>
@@ -21216,7 +21447,7 @@
         <v>0</v>
       </c>
       <c r="AG157" s="1" t="s">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>0</v>
@@ -21234,39 +21465,39 @@
         <v>0</v>
       </c>
       <c r="AM157" s="1" t="n">
-        <v>1160.0</v>
+        <v>1158.0</v>
       </c>
     </row>
     <row r="158" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="n">
-        <v>1161.0</v>
+        <v>1159.0</v>
       </c>
       <c r="B158" s="2" t="n">
-        <v>239.0</v>
+        <v>238.0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>94</v>
+        <v>496</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>522</v>
+        <v>43</v>
       </c>
       <c r="H158" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>0</v>
@@ -21275,13 +21506,13 @@
         <v>0</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>0</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="P158" s="1" t="s">
         <v>0</v>
@@ -21320,22 +21551,22 @@
         <v>0</v>
       </c>
       <c r="AB158" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AC158" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AD158" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AE158" s="1" t="s">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="AF158" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AG158" s="1" t="s">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="AH158" s="1" t="s">
         <v>0</v>
@@ -21353,33 +21584,33 @@
         <v>0</v>
       </c>
       <c r="AM158" s="1" t="n">
-        <v>1161.0</v>
+        <v>1159.0</v>
       </c>
     </row>
     <row r="159" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="n">
-        <v>1162.0</v>
+        <v>1160.0</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>240.0</v>
+        <v>238.0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>0</v>
@@ -21412,10 +21643,10 @@
         <v>0</v>
       </c>
       <c r="S159" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="T159" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="U159" s="1" t="s">
         <v>0</v>
@@ -21424,7 +21655,7 @@
         <v>0</v>
       </c>
       <c r="W159" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="X159" s="1" t="s">
         <v>0</v>
@@ -21433,7 +21664,7 @@
         <v>0</v>
       </c>
       <c r="Z159" s="1" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AA159" s="1" t="s">
         <v>0</v>
@@ -21445,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="AD159" s="1" t="s">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="AE159" s="1" t="s">
         <v>0</v>
@@ -21454,7 +21685,7 @@
         <v>0</v>
       </c>
       <c r="AG159" s="1" t="s">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="AH159" s="1" t="s">
         <v>0</v>
@@ -21472,109 +21703,109 @@
         <v>0</v>
       </c>
       <c r="AM159" s="1" t="n">
-        <v>1162.0</v>
+        <v>1160.0</v>
       </c>
     </row>
     <row r="160" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="n">
-        <v>1163.0</v>
+        <v>1161.0</v>
       </c>
       <c r="B160" s="2" t="n">
-        <v>241.0</v>
+        <v>239.0</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB160" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD160" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG160" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF160" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG160" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="AH160" s="1" t="s">
         <v>0</v>
       </c>
@@ -21591,947 +21822,2507 @@
         <v>0</v>
       </c>
       <c r="AM160" s="1" t="n">
-        <v>1163.0</v>
+        <v>1161.0</v>
       </c>
     </row>
     <row r="161" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="n">
-        <v>1164.0</v>
+        <v>1162.0</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>242.0</v>
+        <v>240.0</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>541</v>
       </c>
       <c r="D161" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z161" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD161" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AE161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG161" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AH161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM161" s="1" t="n">
+        <v>1162.0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="n">
+        <v>1163.0</v>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>241.0</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G161" s="1" t="s">
+      <c r="E162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="H161" s="1" t="s">
+      <c r="H162" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="W161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL161" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM161" s="1" t="n">
+      <c r="I162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM162" s="1" t="n">
+        <v>1163.0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="n">
         <v>1164.0</v>
       </c>
-    </row>
-    <row r="162" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-      <c r="G162" s="1"/>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-      <c r="K162" s="1"/>
-      <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-      <c r="S162" s="1"/>
-      <c r="T162" s="1"/>
-      <c r="U162" s="1"/>
-      <c r="V162" s="1"/>
-      <c r="W162" s="1"/>
-      <c r="X162" s="1"/>
-      <c r="Y162" s="1"/>
-      <c r="Z162" s="1"/>
-      <c r="AA162" s="1"/>
-      <c r="AB162" s="1"/>
-      <c r="AC162" s="1"/>
-      <c r="AD162" s="1"/>
-      <c r="AE162" s="1"/>
-      <c r="AF162" s="1"/>
-      <c r="AG162" s="1"/>
-      <c r="AH162" s="1"/>
-      <c r="AI162" s="1"/>
-      <c r="AJ162" s="1"/>
-      <c r="AK162" s="1"/>
-      <c r="AL162" s="1"/>
-      <c r="AM162" s="1"/>
-    </row>
-    <row r="163" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-      <c r="S163" s="1"/>
-      <c r="T163" s="1"/>
-      <c r="U163" s="1"/>
-      <c r="V163" s="1"/>
-      <c r="W163" s="1"/>
-      <c r="X163" s="1"/>
-      <c r="Y163" s="1"/>
-      <c r="Z163" s="1"/>
-      <c r="AA163" s="1"/>
-      <c r="AB163" s="1"/>
-      <c r="AC163" s="1"/>
-      <c r="AD163" s="1"/>
-      <c r="AE163" s="1"/>
-      <c r="AF163" s="1"/>
-      <c r="AG163" s="1"/>
-      <c r="AH163" s="1"/>
-      <c r="AI163" s="1"/>
-      <c r="AJ163" s="1"/>
-      <c r="AK163" s="1"/>
-      <c r="AL163" s="1"/>
-      <c r="AM163" s="1"/>
+      <c r="B163" s="2" t="n">
+        <v>242.0</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM163" s="1" t="n">
+        <v>1164.0</v>
+      </c>
     </row>
     <row r="164" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-      <c r="S164" s="1"/>
-      <c r="T164" s="1"/>
-      <c r="U164" s="1"/>
-      <c r="V164" s="1"/>
-      <c r="W164" s="1"/>
-      <c r="X164" s="1"/>
-      <c r="Y164" s="1"/>
-      <c r="Z164" s="1"/>
-      <c r="AA164" s="1"/>
-      <c r="AB164" s="1"/>
-      <c r="AC164" s="1"/>
-      <c r="AD164" s="1"/>
-      <c r="AE164" s="1"/>
-      <c r="AF164" s="1"/>
-      <c r="AG164" s="1"/>
-      <c r="AH164" s="1"/>
-      <c r="AI164" s="1"/>
-      <c r="AJ164" s="1"/>
-      <c r="AK164" s="1"/>
-      <c r="AL164" s="1"/>
-      <c r="AM164" s="1"/>
+      <c r="A164" s="2" t="n">
+        <v>1165.0</v>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>243.0</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P164" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R164" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD164" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AE164" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="AF164" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="AG164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM164" s="1" t="n">
+        <v>1165.0</v>
+      </c>
     </row>
     <row r="165" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-      <c r="G165" s="1"/>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-      <c r="K165" s="1"/>
-      <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
-      <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-      <c r="S165" s="1"/>
-      <c r="T165" s="1"/>
-      <c r="U165" s="1"/>
-      <c r="V165" s="1"/>
-      <c r="W165" s="1"/>
-      <c r="X165" s="1"/>
-      <c r="Y165" s="1"/>
-      <c r="Z165" s="1"/>
-      <c r="AA165" s="1"/>
-      <c r="AB165" s="1"/>
-      <c r="AC165" s="1"/>
-      <c r="AD165" s="1"/>
-      <c r="AE165" s="1"/>
-      <c r="AF165" s="1"/>
-      <c r="AG165" s="1"/>
-      <c r="AH165" s="1"/>
-      <c r="AI165" s="1"/>
-      <c r="AJ165" s="1"/>
-      <c r="AK165" s="1"/>
-      <c r="AL165" s="1"/>
-      <c r="AM165" s="1"/>
+      <c r="A165" s="2" t="n">
+        <v>1166.0</v>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M165" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P165" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R165" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD165" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE165" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="AF165" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="AG165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM165" s="1" t="n">
+        <v>1166.0</v>
+      </c>
     </row>
     <row r="166" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-      <c r="S166" s="1"/>
-      <c r="T166" s="1"/>
-      <c r="U166" s="1"/>
-      <c r="V166" s="1"/>
-      <c r="W166" s="1"/>
-      <c r="X166" s="1"/>
-      <c r="Y166" s="1"/>
-      <c r="Z166" s="1"/>
-      <c r="AA166" s="1"/>
-      <c r="AB166" s="1"/>
-      <c r="AC166" s="1"/>
-      <c r="AD166" s="1"/>
-      <c r="AE166" s="1"/>
-      <c r="AF166" s="1"/>
-      <c r="AG166" s="1"/>
-      <c r="AH166" s="1"/>
-      <c r="AI166" s="1"/>
-      <c r="AJ166" s="1"/>
-      <c r="AK166" s="1"/>
-      <c r="AL166" s="1"/>
-      <c r="AM166" s="1"/>
+      <c r="A166" s="2" t="n">
+        <v>1167.0</v>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M166" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P166" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R166" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD166" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="AE166" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="AF166" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="AG166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM166" s="1" t="n">
+        <v>1167.0</v>
+      </c>
     </row>
     <row r="167" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-      <c r="G167" s="1"/>
-      <c r="H167" s="1"/>
-      <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-      <c r="K167" s="1"/>
-      <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
-      <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
-      <c r="T167" s="1"/>
-      <c r="U167" s="1"/>
-      <c r="V167" s="1"/>
-      <c r="W167" s="1"/>
-      <c r="X167" s="1"/>
-      <c r="Y167" s="1"/>
-      <c r="Z167" s="1"/>
-      <c r="AA167" s="1"/>
-      <c r="AB167" s="1"/>
-      <c r="AC167" s="1"/>
-      <c r="AD167" s="1"/>
-      <c r="AE167" s="1"/>
-      <c r="AF167" s="1"/>
-      <c r="AG167" s="1"/>
-      <c r="AH167" s="1"/>
-      <c r="AI167" s="1"/>
-      <c r="AJ167" s="1"/>
-      <c r="AK167" s="1"/>
-      <c r="AL167" s="1"/>
-      <c r="AM167" s="1"/>
+      <c r="A167" s="2" t="n">
+        <v>1168.0</v>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>246.0</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P167" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R167" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD167" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="AE167" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="AF167" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="AG167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM167" s="1" t="n">
+        <v>1168.0</v>
+      </c>
     </row>
     <row r="168" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
-      <c r="G168" s="1"/>
-      <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-      <c r="K168" s="1"/>
-      <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
-      <c r="T168" s="1"/>
-      <c r="U168" s="1"/>
-      <c r="V168" s="1"/>
-      <c r="W168" s="1"/>
-      <c r="X168" s="1"/>
-      <c r="Y168" s="1"/>
-      <c r="Z168" s="1"/>
-      <c r="AA168" s="1"/>
-      <c r="AB168" s="1"/>
-      <c r="AC168" s="1"/>
-      <c r="AD168" s="1"/>
-      <c r="AE168" s="1"/>
-      <c r="AF168" s="1"/>
-      <c r="AG168" s="1"/>
-      <c r="AH168" s="1"/>
-      <c r="AI168" s="1"/>
-      <c r="AJ168" s="1"/>
-      <c r="AK168" s="1"/>
-      <c r="AL168" s="1"/>
-      <c r="AM168" s="1"/>
+      <c r="A168" s="2" t="n">
+        <v>1169.0</v>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M168" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P168" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R168" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD168" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE168" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF168" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AG168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM168" s="1" t="n">
+        <v>1169.0</v>
+      </c>
     </row>
     <row r="169" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-      <c r="K169" s="1"/>
-      <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
-      <c r="S169" s="1"/>
-      <c r="T169" s="1"/>
-      <c r="U169" s="1"/>
-      <c r="V169" s="1"/>
-      <c r="W169" s="1"/>
-      <c r="X169" s="1"/>
-      <c r="Y169" s="1"/>
-      <c r="Z169" s="1"/>
-      <c r="AA169" s="1"/>
-      <c r="AB169" s="1"/>
-      <c r="AC169" s="1"/>
-      <c r="AD169" s="1"/>
-      <c r="AE169" s="1"/>
-      <c r="AF169" s="1"/>
-      <c r="AG169" s="1"/>
-      <c r="AH169" s="1"/>
-      <c r="AI169" s="1"/>
-      <c r="AJ169" s="1"/>
-      <c r="AK169" s="1"/>
-      <c r="AL169" s="1"/>
-      <c r="AM169" s="1"/>
+      <c r="A169" s="2" t="n">
+        <v>1170.0</v>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>248.0</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M169" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD169" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="AE169" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="AF169" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AG169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM169" s="1" t="n">
+        <v>1170.0</v>
+      </c>
     </row>
     <row r="170" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-      <c r="K170" s="1"/>
-      <c r="L170" s="1"/>
-      <c r="M170" s="1"/>
-      <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="U170" s="1"/>
-      <c r="V170" s="1"/>
-      <c r="W170" s="1"/>
-      <c r="X170" s="1"/>
-      <c r="Y170" s="1"/>
-      <c r="Z170" s="1"/>
-      <c r="AA170" s="1"/>
-      <c r="AB170" s="1"/>
-      <c r="AC170" s="1"/>
-      <c r="AD170" s="1"/>
-      <c r="AE170" s="1"/>
-      <c r="AF170" s="1"/>
-      <c r="AG170" s="1"/>
-      <c r="AH170" s="1"/>
-      <c r="AI170" s="1"/>
-      <c r="AJ170" s="1"/>
-      <c r="AK170" s="1"/>
-      <c r="AL170" s="1"/>
-      <c r="AM170" s="1"/>
+      <c r="A170" s="2" t="n">
+        <v>1171.0</v>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R170" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD170" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE170" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="AF170" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="AG170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM170" s="1" t="n">
+        <v>1171.0</v>
+      </c>
     </row>
     <row r="171" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-      <c r="K171" s="1"/>
-      <c r="L171" s="1"/>
-      <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="U171" s="1"/>
-      <c r="V171" s="1"/>
-      <c r="W171" s="1"/>
-      <c r="X171" s="1"/>
-      <c r="Y171" s="1"/>
-      <c r="Z171" s="1"/>
-      <c r="AA171" s="1"/>
-      <c r="AB171" s="1"/>
-      <c r="AC171" s="1"/>
-      <c r="AD171" s="1"/>
-      <c r="AE171" s="1"/>
-      <c r="AF171" s="1"/>
-      <c r="AG171" s="1"/>
-      <c r="AH171" s="1"/>
-      <c r="AI171" s="1"/>
-      <c r="AJ171" s="1"/>
-      <c r="AK171" s="1"/>
-      <c r="AL171" s="1"/>
-      <c r="AM171" s="1"/>
+      <c r="A171" s="2" t="n">
+        <v>1172.0</v>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P171" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R171" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD171" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AE171" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AF171" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AG171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM171" s="1" t="n">
+        <v>1172.0</v>
+      </c>
     </row>
     <row r="172" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-      <c r="K172" s="1"/>
-      <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
-      <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-      <c r="S172" s="1"/>
-      <c r="T172" s="1"/>
-      <c r="U172" s="1"/>
-      <c r="V172" s="1"/>
-      <c r="W172" s="1"/>
-      <c r="X172" s="1"/>
-      <c r="Y172" s="1"/>
-      <c r="Z172" s="1"/>
-      <c r="AA172" s="1"/>
-      <c r="AB172" s="1"/>
-      <c r="AC172" s="1"/>
-      <c r="AD172" s="1"/>
-      <c r="AE172" s="1"/>
-      <c r="AF172" s="1"/>
-      <c r="AG172" s="1"/>
-      <c r="AH172" s="1"/>
-      <c r="AI172" s="1"/>
-      <c r="AJ172" s="1"/>
-      <c r="AK172" s="1"/>
-      <c r="AL172" s="1"/>
-      <c r="AM172" s="1"/>
+      <c r="A172" s="2" t="n">
+        <v>1173.0</v>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>251.0</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M172" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P172" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R172" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD172" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="AE172" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF172" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="AG172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM172" s="1" t="n">
+        <v>1173.0</v>
+      </c>
     </row>
     <row r="173" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-      <c r="K173" s="1"/>
-      <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
-      <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
-      <c r="T173" s="1"/>
-      <c r="U173" s="1"/>
-      <c r="V173" s="1"/>
-      <c r="W173" s="1"/>
-      <c r="X173" s="1"/>
-      <c r="Y173" s="1"/>
-      <c r="Z173" s="1"/>
-      <c r="AA173" s="1"/>
-      <c r="AB173" s="1"/>
-      <c r="AC173" s="1"/>
-      <c r="AD173" s="1"/>
-      <c r="AE173" s="1"/>
-      <c r="AF173" s="1"/>
-      <c r="AG173" s="1"/>
-      <c r="AH173" s="1"/>
-      <c r="AI173" s="1"/>
-      <c r="AJ173" s="1"/>
-      <c r="AK173" s="1"/>
-      <c r="AL173" s="1"/>
-      <c r="AM173" s="1"/>
+      <c r="A173" s="2" t="n">
+        <v>1174.0</v>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>252.0</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P173" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R173" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD173" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE173" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="AF173" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM173" s="1" t="n">
+        <v>1174.0</v>
+      </c>
     </row>
     <row r="174" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
-      <c r="V174" s="1"/>
-      <c r="W174" s="1"/>
-      <c r="X174" s="1"/>
-      <c r="Y174" s="1"/>
-      <c r="Z174" s="1"/>
-      <c r="AA174" s="1"/>
-      <c r="AB174" s="1"/>
-      <c r="AC174" s="1"/>
-      <c r="AD174" s="1"/>
-      <c r="AE174" s="1"/>
-      <c r="AF174" s="1"/>
-      <c r="AG174" s="1"/>
-      <c r="AH174" s="1"/>
-      <c r="AI174" s="1"/>
-      <c r="AJ174" s="1"/>
-      <c r="AK174" s="1"/>
-      <c r="AL174" s="1"/>
-      <c r="AM174" s="1"/>
+      <c r="A174" s="2" t="n">
+        <v>1175.0</v>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>253.0</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M174" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P174" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R174" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD174" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="AE174" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="AF174" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="AG174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM174" s="1" t="n">
+        <v>1175.0</v>
+      </c>
     </row>
     <row r="175" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
-      <c r="G175" s="1"/>
-      <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-      <c r="K175" s="1"/>
-      <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
-      <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
-      <c r="R175" s="1"/>
-      <c r="S175" s="1"/>
-      <c r="T175" s="1"/>
-      <c r="U175" s="1"/>
-      <c r="V175" s="1"/>
-      <c r="W175" s="1"/>
-      <c r="X175" s="1"/>
-      <c r="Y175" s="1"/>
-      <c r="Z175" s="1"/>
-      <c r="AA175" s="1"/>
-      <c r="AB175" s="1"/>
-      <c r="AC175" s="1"/>
-      <c r="AD175" s="1"/>
-      <c r="AE175" s="1"/>
-      <c r="AF175" s="1"/>
-      <c r="AG175" s="1"/>
-      <c r="AH175" s="1"/>
-      <c r="AI175" s="1"/>
-      <c r="AJ175" s="1"/>
-      <c r="AK175" s="1"/>
-      <c r="AL175" s="1"/>
-      <c r="AM175" s="1"/>
+      <c r="A175" s="2" t="n">
+        <v>1176.0</v>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>254.0</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P175" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R175" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD175" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="AE175" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AF175" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AG175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM175" s="1" t="n">
+        <v>1176.0</v>
+      </c>
     </row>
     <row r="176" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
-      <c r="G176" s="1"/>
-      <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-      <c r="K176" s="1"/>
-      <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
-      <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
-      <c r="S176" s="1"/>
-      <c r="T176" s="1"/>
-      <c r="U176" s="1"/>
-      <c r="V176" s="1"/>
-      <c r="W176" s="1"/>
-      <c r="X176" s="1"/>
-      <c r="Y176" s="1"/>
-      <c r="Z176" s="1"/>
-      <c r="AA176" s="1"/>
-      <c r="AB176" s="1"/>
-      <c r="AC176" s="1"/>
-      <c r="AD176" s="1"/>
-      <c r="AE176" s="1"/>
-      <c r="AF176" s="1"/>
-      <c r="AG176" s="1"/>
-      <c r="AH176" s="1"/>
-      <c r="AI176" s="1"/>
-      <c r="AJ176" s="1"/>
-      <c r="AK176" s="1"/>
-      <c r="AL176" s="1"/>
-      <c r="AM176" s="1"/>
+      <c r="A176" s="2" t="n">
+        <v>1177.0</v>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>255.0</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P176" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R176" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE176" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="AF176" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="AG176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM176" s="1" t="n">
+        <v>1177.0</v>
+      </c>
     </row>
     <row r="177" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
-      <c r="G177" s="1"/>
-      <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-      <c r="K177" s="1"/>
-      <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
-      <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
-      <c r="T177" s="1"/>
-      <c r="U177" s="1"/>
-      <c r="V177" s="1"/>
-      <c r="W177" s="1"/>
-      <c r="X177" s="1"/>
-      <c r="Y177" s="1"/>
-      <c r="Z177" s="1"/>
-      <c r="AA177" s="1"/>
-      <c r="AB177" s="1"/>
-      <c r="AC177" s="1"/>
-      <c r="AD177" s="1"/>
-      <c r="AE177" s="1"/>
-      <c r="AF177" s="1"/>
-      <c r="AG177" s="1"/>
-      <c r="AH177" s="1"/>
-      <c r="AI177" s="1"/>
-      <c r="AJ177" s="1"/>
-      <c r="AK177" s="1"/>
-      <c r="AL177" s="1"/>
-      <c r="AM177" s="1"/>
+      <c r="A177" s="2" t="n">
+        <v>1178.0</v>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P177" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R177" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD177" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AE177" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AF177" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AG177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM177" s="1" t="n">
+        <v>1178.0</v>
+      </c>
     </row>
     <row r="178" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
-      <c r="G178" s="1"/>
-      <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-      <c r="K178" s="1"/>
-      <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-      <c r="S178" s="1"/>
-      <c r="T178" s="1"/>
-      <c r="U178" s="1"/>
-      <c r="V178" s="1"/>
-      <c r="W178" s="1"/>
-      <c r="X178" s="1"/>
-      <c r="Y178" s="1"/>
-      <c r="Z178" s="1"/>
-      <c r="AA178" s="1"/>
-      <c r="AB178" s="1"/>
-      <c r="AC178" s="1"/>
-      <c r="AD178" s="1"/>
-      <c r="AE178" s="1"/>
-      <c r="AF178" s="1"/>
-      <c r="AG178" s="1"/>
-      <c r="AH178" s="1"/>
-      <c r="AI178" s="1"/>
-      <c r="AJ178" s="1"/>
-      <c r="AK178" s="1"/>
-      <c r="AL178" s="1"/>
-      <c r="AM178" s="1"/>
+      <c r="A178" s="2" t="n">
+        <v>1179.0</v>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M178" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P178" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R178" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD178" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE178" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AF178" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="AG178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM178" s="1" t="n">
+        <v>1179.0</v>
+      </c>
     </row>
     <row r="179" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1"/>
-      <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-      <c r="K179" s="1"/>
-      <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
-      <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-      <c r="S179" s="1"/>
-      <c r="T179" s="1"/>
-      <c r="U179" s="1"/>
-      <c r="V179" s="1"/>
-      <c r="W179" s="1"/>
-      <c r="X179" s="1"/>
-      <c r="Y179" s="1"/>
-      <c r="Z179" s="1"/>
-      <c r="AA179" s="1"/>
-      <c r="AB179" s="1"/>
-      <c r="AC179" s="1"/>
-      <c r="AD179" s="1"/>
-      <c r="AE179" s="1"/>
-      <c r="AF179" s="1"/>
-      <c r="AG179" s="1"/>
-      <c r="AH179" s="1"/>
-      <c r="AI179" s="1"/>
-      <c r="AJ179" s="1"/>
-      <c r="AK179" s="1"/>
-      <c r="AL179" s="1"/>
-      <c r="AM179" s="1"/>
+      <c r="A179" s="2" t="n">
+        <v>1180.0</v>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>258.0</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P179" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R179" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD179" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="AE179" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="AF179" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="AG179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM179" s="1" t="n">
+        <v>1180.0</v>
+      </c>
     </row>
     <row r="180" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
-      <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
-      <c r="K180" s="1"/>
-      <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
-      <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-      <c r="S180" s="1"/>
-      <c r="T180" s="1"/>
-      <c r="U180" s="1"/>
-      <c r="V180" s="1"/>
-      <c r="W180" s="1"/>
-      <c r="X180" s="1"/>
-      <c r="Y180" s="1"/>
-      <c r="Z180" s="1"/>
-      <c r="AA180" s="1"/>
-      <c r="AB180" s="1"/>
-      <c r="AC180" s="1"/>
-      <c r="AD180" s="1"/>
-      <c r="AE180" s="1"/>
-      <c r="AF180" s="1"/>
-      <c r="AG180" s="1"/>
-      <c r="AH180" s="1"/>
-      <c r="AI180" s="1"/>
-      <c r="AJ180" s="1"/>
-      <c r="AK180" s="1"/>
-      <c r="AL180" s="1"/>
-      <c r="AM180" s="1"/>
+      <c r="A180" s="2" t="n">
+        <v>1181.0</v>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>259.0</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M180" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P180" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R180" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD180" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE180" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AF180" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AG180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM180" s="1" t="n">
+        <v>1181.0</v>
+      </c>
     </row>
     <row r="181" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
-      <c r="K181" s="1"/>
-      <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
-      <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-      <c r="S181" s="1"/>
-      <c r="T181" s="1"/>
-      <c r="U181" s="1"/>
-      <c r="V181" s="1"/>
-      <c r="W181" s="1"/>
-      <c r="X181" s="1"/>
-      <c r="Y181" s="1"/>
-      <c r="Z181" s="1"/>
-      <c r="AA181" s="1"/>
-      <c r="AB181" s="1"/>
-      <c r="AC181" s="1"/>
-      <c r="AD181" s="1"/>
-      <c r="AE181" s="1"/>
-      <c r="AF181" s="1"/>
-      <c r="AG181" s="1"/>
-      <c r="AH181" s="1"/>
-      <c r="AI181" s="1"/>
-      <c r="AJ181" s="1"/>
-      <c r="AK181" s="1"/>
-      <c r="AL181" s="1"/>
-      <c r="AM181" s="1"/>
+      <c r="A181" s="2" t="n">
+        <v>1182.0</v>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>260.0</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="N181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P181" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R181" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD181" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE181" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="AF181" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="AG181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM181" s="1" t="n">
+        <v>1182.0</v>
+      </c>
     </row>
     <row r="182" spans="1:39" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>

--- a/automation/sourcecode/commons/interfaceReference/output/interface_out.xlsx
+++ b/automation/sourcecode/commons/interfaceReference/output/interface_out.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8826" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8826" uniqueCount="625">
   <si>
     <t>-</t>
   </si>
@@ -136,7 +136,7 @@
     <t>INTERFACE_ID</t>
   </si>
   <si>
-    <t>INTFS001A - Sales Allocation (Starter Pack - Stock Dump)</t>
+    <t>INTFS001A - Sales Allocation (Starter Pack - Stock Dump) &amp; INTTNM002 - Starterpack Stock Dump</t>
   </si>
   <si>
     <t xml:space="preserve">1. ASYNC_FILE_INTERFACE_TYPE
@@ -171,6 +171,9 @@
     <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1001=0 20,40 2-21 * * ? *</t>
   </si>
   <si>
+    <t>INTFS001A - Sales Allocation (Starter Pack - Stock Dump)</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. SYNC_INTERFACE_TYPE
 2. SEND_TRANS_TYPE
 </t>
@@ -185,88 +188,103 @@
     <t>SCHEDULAR_FOR_PROCESS_PENDING_ORDER_RES_CONSUMER_1002=0 0/1 * * * ? *</t>
   </si>
   <si>
+    <t>INTFS001B - Sales Allocation (Starter Pack - Alloc Dump) &amp; INTTNM003 - Starterpack Allocation Dump</t>
+  </si>
+  <si>
+    <t>java:global/EnhancesysManagement/IntegrationServices/SPAllocDumpMerger!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1003=0 0/5 2-21 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1003=0 10,30,50 2-21 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1003=0 20,40 2-21 * * ? *</t>
+  </si>
+  <si>
     <t>INTFS001B - Sales Allocation (Starter Pack - Alloc Dump)</t>
   </si>
   <si>
-    <t>java:global/EnhancesysManagement/IntegrationServices/SPAllocDumpMerger!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PROCESS_FILE_1003=0 0/5 2-21 * * ? *</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1003=0 10,30,50 2-21 * * ? *</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1003=0 20,40 2-21 * * ? *</t>
-  </si>
-  <si>
     <t>SCHEDULAR_FOR_PROCESS_PENDING_ORDER_RES_CONSUMER_1004=0 0/1 * * * ? *</t>
   </si>
   <si>
+    <t>INTFS002A - Sales Allocation (Vouchers - Stock Dump) &amp; INTTNM004 - Voucher Stock Dump</t>
+  </si>
+  <si>
+    <t>java:global/EnhancesysManagement/IntegrationServices/VoucherStockDumpMerger!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1005=0 0/5 2-21 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1005=0 10,30,50 2-21 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1005=0 20,40 2-21 * * ? *</t>
+  </si>
+  <si>
     <t>INTFS002A - Sales Allocation (Vouchers - Stock Dump)</t>
   </si>
   <si>
-    <t>java:global/EnhancesysManagement/IntegrationServices/VoucherStockDumpMerger!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PROCESS_FILE_1005=0 0/5 2-21 * * ? *</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1005=0 10,30,50 2-21 * * ? *</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1005=0 20,40 2-21 * * ? *</t>
-  </si>
-  <si>
     <t>SCHEDULAR_FOR_PROCESS_PENDING_ORDER_RES_CONSUMER_1006=0 0/1 * * * ? *</t>
   </si>
   <si>
+    <t>INTFS002B - Sales Allocation (Vouchers - Alloc Dump) &amp; INTTNM005 - Voucher Allocation Dump</t>
+  </si>
+  <si>
+    <t>java:global/EnhancesysManagement/IntegrationServices/VoucherAllocDumpMerger!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1007=0 0/5 2-21 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1007=0 10,30,50 2-21 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1007=0 20,40 2-21 * * ? *</t>
+  </si>
+  <si>
     <t>INTFS002B - Sales Allocation (Vouchers - Alloc Dump)</t>
   </si>
   <si>
-    <t>java:global/EnhancesysManagement/IntegrationServices/VoucherAllocDumpMerger!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PROCESS_FILE_1007=0 0/5 2-21 * * ? *</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1007=0 10,30,50 2-21 * * ? *</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1007=0 20,40 2-21 * * ? *</t>
-  </si>
-  <si>
     <t>SCHEDULAR_FOR_PROCESS_PENDING_ORDER_RES_CONSUMER_1008=0 0/1 * * * ? *</t>
   </si>
   <si>
+    <t>INTFS003 - Product Creation &amp; INTTNM001 - Product Dump</t>
+  </si>
+  <si>
+    <t>java:global/EnhancesysManagement/IntegrationServices/ProductCreation!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1009=0 0/5 2-21 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1009=0 10,30,50 2-21 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1009=0 20,40 2-21 * * ? *</t>
+  </si>
+  <si>
     <t>INTFS003 - Product Creation</t>
   </si>
   <si>
-    <t>java:global/EnhancesysManagement/IntegrationServices/ProductCreation!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PROCESS_FILE_1009=0 0/5 2-21 * * ? *</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1009=0 10,30,50 2-21 * * ? *</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1009=0 20,40 2-21 * * ? *</t>
+    <t>INTFS004 - Serail Number Expiry &amp; INTTNM006 - Extend Expiry Date</t>
+  </si>
+  <si>
+    <t>java:global/EnhancesysManagement/IntegrationServices/SerialExpiryMerger!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_FILE_1011=0 0/5 2-21 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1011=0 10,30,50 2-21 * * ? *</t>
+  </si>
+  <si>
+    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1011=0 20,40 2-21 * * ? *</t>
   </si>
   <si>
     <t>INTFS004 - Serail Number Expiry</t>
-  </si>
-  <si>
-    <t>java:global/EnhancesysManagement/IntegrationServices/SerialExpiryMerger!com.enhancesys.integration.services.interfaces.merger.CSVMerger</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PROCESS_FILE_1011=0 0/5 2-21 * * ? *</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PROCESS_RECEIVE_FILE_1011=0 10,30,50 2-21 * * ? *</t>
-  </si>
-  <si>
-    <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1011=0 20,40 2-21 * * ? *</t>
   </si>
   <si>
     <t>INTDW001 - Activation Feed</t>
@@ -1869,7 +1887,7 @@
     <t>SCHEDULAR_FOR_PREPARE_REJECTION_FILE_1181=0 0 5 * * ? *</t>
   </si>
   <si>
-    <t>INTHDP018 - Outlet SP Tagging</t>
+    <t>INTHDP019 - Outlet SP Tagging</t>
   </si>
   <si>
     <t>SCHEDULAR_FOR_PROCESS_FILE_1182=0 0 2 * * ? *</t>
@@ -3031,13 +3049,13 @@
         <v>101.0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -3058,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>0</v>
@@ -3127,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>0</v>
@@ -3150,7 +3168,7 @@
         <v>102.0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>41</v>
@@ -3171,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>0</v>
@@ -3231,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG4" s="1" t="s">
         <v>0</v>
@@ -3269,13 +3287,13 @@
         <v>102.0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>0</v>
@@ -3296,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>0</v>
@@ -3365,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>0</v>
@@ -3388,7 +3406,7 @@
         <v>103.0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>41</v>
@@ -3409,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>0</v>
@@ -3469,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF6" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG6" s="1" t="s">
         <v>0</v>
@@ -3507,13 +3525,13 @@
         <v>103.0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>0</v>
@@ -3534,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>0</v>
@@ -3603,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AJ7" s="1" t="s">
         <v>0</v>
@@ -3626,7 +3644,7 @@
         <v>104.0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>41</v>
@@ -3647,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>0</v>
@@ -3707,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG8" s="1" t="s">
         <v>0</v>
@@ -3745,13 +3763,13 @@
         <v>104.0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>0</v>
@@ -3772,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>0</v>
@@ -3841,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AJ9" s="1" t="s">
         <v>0</v>
@@ -3864,7 +3882,7 @@
         <v>105.0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>41</v>
@@ -3885,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>0</v>
@@ -3945,13 +3963,13 @@
         <v>0</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AG10" s="1" t="s">
         <v>0</v>
@@ -3983,10 +4001,10 @@
         <v>105.0</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>0</v>
@@ -4102,7 +4120,7 @@
         <v>106.0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>41</v>
@@ -4123,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>0</v>
@@ -4183,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AG12" s="1" t="s">
         <v>0</v>
@@ -4221,10 +4239,10 @@
         <v>106.0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>0</v>
@@ -4340,7 +4358,7 @@
         <v>107.0</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>41</v>
@@ -4361,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>0</v>
@@ -4370,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>0</v>
@@ -4421,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AF14" s="1" t="s">
         <v>0</v>
@@ -4459,10 +4477,10 @@
         <v>107.0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>0</v>
@@ -4578,7 +4596,7 @@
         <v>108.0</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>41</v>
@@ -4599,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>0</v>
@@ -4608,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>0</v>
@@ -4659,10 +4677,10 @@
         <v>0</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AF16" s="1" t="s">
         <v>0</v>
@@ -4697,10 +4715,10 @@
         <v>108.0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>0</v>
@@ -4816,19 +4834,19 @@
         <v>109.0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>0</v>
@@ -4897,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="AE18" s="1" t="s">
         <v>0</v>
@@ -4906,7 +4924,7 @@
         <v>0</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>0</v>
@@ -4935,25 +4953,25 @@
         <v>110.0</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>0</v>
@@ -4968,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>0</v>
@@ -5034,13 +5052,13 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AK19" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AL19" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AM19" s="1" t="n">
         <v>1018.0</v>
@@ -5054,25 +5072,25 @@
         <v>111.0</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>0</v>
@@ -5087,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>0</v>
@@ -5153,13 +5171,13 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AM20" s="1" t="n">
         <v>1019.0</v>
@@ -5173,25 +5191,25 @@
         <v>112.0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>0</v>
@@ -5206,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>0</v>
@@ -5272,13 +5290,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AK21" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AL21" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="AM21" s="1" t="n">
         <v>1020.0</v>
@@ -5292,25 +5310,25 @@
         <v>113.0</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>0</v>
@@ -5325,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>0</v>
@@ -5391,13 +5409,13 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="AK22" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="AL22" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AM22" s="1" t="n">
         <v>1021.0</v>
@@ -5411,25 +5429,25 @@
         <v>114.0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>0</v>
@@ -5444,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>0</v>
@@ -5510,13 +5528,13 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="AK23" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="AL23" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AM23" s="1" t="n">
         <v>1022.0</v>
@@ -5530,25 +5548,25 @@
         <v>115.0</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>0</v>
@@ -5563,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>0</v>
@@ -5629,13 +5647,13 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AK24" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AL24" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AM24" s="1" t="n">
         <v>1023.0</v>
@@ -5649,19 +5667,19 @@
         <v>116.0</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>0</v>
@@ -5730,7 +5748,7 @@
         <v>47</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AE25" s="1" t="s">
         <v>0</v>
@@ -5739,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>0</v>
@@ -5768,7 +5786,7 @@
         <v>117.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>41</v>
@@ -5789,7 +5807,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>0</v>
@@ -5798,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>0</v>
@@ -5849,13 +5867,13 @@
         <v>0</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AE26" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AF26" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="AG26" s="1" t="s">
         <v>0</v>
@@ -5887,10 +5905,10 @@
         <v>117.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>0</v>
@@ -6006,7 +6024,7 @@
         <v>118.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>41</v>
@@ -6027,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>0</v>
@@ -6036,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>0</v>
@@ -6087,13 +6105,13 @@
         <v>0</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="AE28" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="AF28" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="AG28" s="1" t="s">
         <v>0</v>
@@ -6125,10 +6143,10 @@
         <v>118.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>0</v>
@@ -6244,19 +6262,19 @@
         <v>119.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>0</v>
@@ -6325,7 +6343,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="AE30" s="1" t="s">
         <v>0</v>
@@ -6334,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="AG30" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AH30" s="1" t="s">
         <v>0</v>
@@ -6363,19 +6381,19 @@
         <v>120.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>0</v>
@@ -6444,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="AE31" s="1" t="s">
         <v>0</v>
@@ -6453,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="AH31" s="1" t="s">
         <v>0</v>
@@ -6482,19 +6500,19 @@
         <v>121.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>0</v>
@@ -6563,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="AE32" s="1" t="s">
         <v>0</v>
@@ -6572,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>0</v>
@@ -6601,20 +6619,20 @@
         <v>122.0</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="H33" s="1" t="s">
         <v>0</v>
       </c>
@@ -6682,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AE33" s="1" t="s">
         <v>0</v>
@@ -6691,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="AG33" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AH33" s="1" t="s">
         <v>0</v>
@@ -6720,19 +6738,19 @@
         <v>123.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>0</v>
@@ -6801,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AE34" s="1" t="s">
         <v>0</v>
@@ -6810,7 +6828,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="AH34" s="1" t="s">
         <v>0</v>
@@ -6839,19 +6857,19 @@
         <v>124.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>0</v>
@@ -6920,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="AE35" s="1" t="s">
         <v>0</v>
@@ -6929,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>0</v>
@@ -6958,19 +6976,19 @@
         <v>125.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>0</v>
@@ -7039,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="AD36" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AE36" s="1" t="s">
         <v>0</v>
@@ -7048,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="AH36" s="1" t="s">
         <v>0</v>
@@ -7077,19 +7095,19 @@
         <v>126.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>0</v>
@@ -7158,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="AD37" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AE37" s="1" t="s">
         <v>0</v>
@@ -7167,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AH37" s="1" t="s">
         <v>0</v>
@@ -7196,19 +7214,19 @@
         <v>127.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>0</v>
@@ -7277,7 +7295,7 @@
         <v>0</v>
       </c>
       <c r="AD38" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AE38" s="1" t="s">
         <v>0</v>
@@ -7286,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AH38" s="1" t="s">
         <v>0</v>
@@ -7315,19 +7333,19 @@
         <v>128.0</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>0</v>
@@ -7396,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AE39" s="1" t="s">
         <v>0</v>
@@ -7405,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AH39" s="1" t="s">
         <v>0</v>
@@ -7434,19 +7452,19 @@
         <v>129.0</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>0</v>
@@ -7515,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AE40" s="1" t="s">
         <v>0</v>
@@ -7524,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="AG40" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AH40" s="1" t="s">
         <v>0</v>
@@ -7553,19 +7571,19 @@
         <v>130.0</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>0</v>
@@ -7634,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="AD41" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AE41" s="1" t="s">
         <v>0</v>
@@ -7643,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="AG41" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>0</v>
@@ -7672,19 +7690,19 @@
         <v>131.0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>0</v>
@@ -7753,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="AD42" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AE42" s="1" t="s">
         <v>0</v>
@@ -7762,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="AG42" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AH42" s="1" t="s">
         <v>0</v>
@@ -7791,19 +7809,19 @@
         <v>132.0</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>0</v>
@@ -7872,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AE43" s="1" t="s">
         <v>0</v>
@@ -7881,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="AG43" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AH43" s="1" t="s">
         <v>0</v>
@@ -7910,19 +7928,19 @@
         <v>133.0</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>0</v>
@@ -7991,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="AE44" s="1" t="s">
         <v>0</v>
@@ -8000,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="AG44" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AH44" s="1" t="s">
         <v>0</v>
@@ -8029,19 +8047,19 @@
         <v>134.0</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>0</v>
@@ -8110,7 +8128,7 @@
         <v>0</v>
       </c>
       <c r="AD45" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AE45" s="1" t="s">
         <v>0</v>
@@ -8119,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AH45" s="1" t="s">
         <v>0</v>
@@ -8148,19 +8166,19 @@
         <v>135.0</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>0</v>
@@ -8229,7 +8247,7 @@
         <v>0</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="AE46" s="1" t="s">
         <v>0</v>
@@ -8238,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="AG46" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="AH46" s="1" t="s">
         <v>0</v>
@@ -8267,19 +8285,19 @@
         <v>136.0</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>0</v>
@@ -8348,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="AD47" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AE47" s="1" t="s">
         <v>0</v>
@@ -8357,7 +8375,7 @@
         <v>0</v>
       </c>
       <c r="AG47" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="AH47" s="1" t="s">
         <v>0</v>
@@ -8386,19 +8404,19 @@
         <v>137.0</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>0</v>
@@ -8467,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AE48" s="1" t="s">
         <v>0</v>
@@ -8476,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AH48" s="1" t="s">
         <v>0</v>
@@ -8505,19 +8523,19 @@
         <v>138.0</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>0</v>
@@ -8586,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="AE49" s="1" t="s">
         <v>0</v>
@@ -8595,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AH49" s="1" t="s">
         <v>0</v>
@@ -8624,19 +8642,19 @@
         <v>139.0</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>0</v>
@@ -8705,7 +8723,7 @@
         <v>47</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AE50" s="1" t="s">
         <v>0</v>
@@ -8714,7 +8732,7 @@
         <v>0</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AH50" s="1" t="s">
         <v>0</v>
@@ -8743,19 +8761,19 @@
         <v>140.0</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>0</v>
@@ -8824,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AE51" s="1" t="s">
         <v>0</v>
@@ -8833,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AH51" s="1" t="s">
         <v>0</v>
@@ -8862,7 +8880,7 @@
         <v>141.0</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>41</v>
@@ -8883,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>0</v>
@@ -8892,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>0</v>
@@ -8943,13 +8961,13 @@
         <v>0</v>
       </c>
       <c r="AD52" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AE52" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="AF52" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="AG52" s="1" t="s">
         <v>0</v>
@@ -8981,19 +8999,19 @@
         <v>159.0</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>0</v>
@@ -9062,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AE53" s="1" t="s">
         <v>0</v>
@@ -9071,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="AG53" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AH53" s="1" t="s">
         <v>0</v>
@@ -9100,13 +9118,13 @@
         <v>142.0</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>0</v>
@@ -9121,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>0</v>
@@ -9130,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>0</v>
@@ -9181,10 +9199,10 @@
         <v>0</v>
       </c>
       <c r="AD54" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>0</v>
@@ -9219,13 +9237,13 @@
         <v>142.0</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>0</v>
@@ -9338,19 +9356,19 @@
         <v>143.0</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>0</v>
@@ -9419,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="AD56" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AE56" s="1" t="s">
         <v>0</v>
@@ -9428,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AH56" s="1" t="s">
         <v>0</v>
@@ -9457,19 +9475,19 @@
         <v>144.0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>0</v>
@@ -9538,7 +9556,7 @@
         <v>0</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AE57" s="1" t="s">
         <v>0</v>
@@ -9547,7 +9565,7 @@
         <v>0</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AH57" s="1" t="s">
         <v>0</v>
@@ -9576,19 +9594,19 @@
         <v>145.0</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>0</v>
@@ -9657,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="AD58" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AE58" s="1" t="s">
         <v>0</v>
@@ -9666,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AH58" s="1" t="s">
         <v>0</v>
@@ -9695,19 +9713,19 @@
         <v>146.0</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>0</v>
@@ -9776,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AE59" s="1" t="s">
         <v>0</v>
@@ -9785,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AH59" s="1" t="s">
         <v>0</v>
@@ -9814,19 +9832,19 @@
         <v>147.0</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>0</v>
@@ -9895,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AE60" s="1" t="s">
         <v>0</v>
@@ -9904,7 +9922,7 @@
         <v>0</v>
       </c>
       <c r="AG60" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AH60" s="1" t="s">
         <v>0</v>
@@ -9933,19 +9951,19 @@
         <v>148.0</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>0</v>
@@ -10014,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="AD61" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="AE61" s="1" t="s">
         <v>0</v>
@@ -10023,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="AG61" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="AH61" s="1" t="s">
         <v>0</v>
@@ -10052,19 +10070,19 @@
         <v>149.0</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>0</v>
@@ -10133,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AE62" s="1" t="s">
         <v>0</v>
@@ -10142,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="AG62" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AH62" s="1" t="s">
         <v>0</v>
@@ -10171,7 +10189,7 @@
         <v>150.0</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>41</v>
@@ -10192,7 +10210,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>0</v>
@@ -10201,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>0</v>
@@ -10252,13 +10270,13 @@
         <v>0</v>
       </c>
       <c r="AD63" s="1" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AE63" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AF63" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AG63" s="1" t="s">
         <v>0</v>
@@ -10290,10 +10308,10 @@
         <v>150.0</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>42</v>
@@ -10409,13 +10427,13 @@
         <v>151.0</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>0</v>
@@ -10430,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>0</v>
@@ -10439,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>0</v>
@@ -10490,13 +10508,13 @@
         <v>0</v>
       </c>
       <c r="AD65" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="AE65" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="AF65" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="AG65" s="1" t="s">
         <v>0</v>
@@ -10528,13 +10546,13 @@
         <v>152.0</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>0</v>
@@ -10549,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>0</v>
@@ -10558,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>0</v>
@@ -10609,13 +10627,13 @@
         <v>0</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="AG66" s="1" t="s">
         <v>0</v>
@@ -10647,13 +10665,13 @@
         <v>153.0</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>0</v>
@@ -10668,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>0</v>
@@ -10677,7 +10695,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>0</v>
@@ -10728,19 +10746,19 @@
         <v>0</v>
       </c>
       <c r="AD67" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AE67" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AF67" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AG67" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH67" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AI67" s="1" t="s">
         <v>0</v>
@@ -10766,13 +10784,13 @@
         <v>154.0</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>0</v>
@@ -10787,7 +10805,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>0</v>
@@ -10796,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>0</v>
@@ -10847,13 +10865,13 @@
         <v>0</v>
       </c>
       <c r="AD68" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="AE68" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AF68" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AG68" s="1" t="s">
         <v>0</v>
@@ -10885,13 +10903,13 @@
         <v>155.0</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>0</v>
@@ -10906,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>0</v>
@@ -10915,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>0</v>
@@ -10966,19 +10984,19 @@
         <v>0</v>
       </c>
       <c r="AD69" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AE69" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AF69" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AG69" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH69" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="AI69" s="1" t="s">
         <v>0</v>
@@ -11004,13 +11022,13 @@
         <v>156.0</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>0</v>
@@ -11025,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>0</v>
@@ -11034,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>0</v>
@@ -11085,19 +11103,19 @@
         <v>0</v>
       </c>
       <c r="AD70" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AE70" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="AF70" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AG70" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH70" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AI70" s="1" t="s">
         <v>0</v>
@@ -11123,13 +11141,13 @@
         <v>157.0</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>0</v>
@@ -11144,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>0</v>
@@ -11153,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N71" s="1" t="s">
         <v>0</v>
@@ -11204,19 +11222,19 @@
         <v>0</v>
       </c>
       <c r="AD71" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AE71" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AF71" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AG71" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH71" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AI71" s="1" t="s">
         <v>0</v>
@@ -11242,13 +11260,13 @@
         <v>158.0</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>0</v>
@@ -11263,7 +11281,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>0</v>
@@ -11272,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N72" s="1" t="s">
         <v>0</v>
@@ -11323,13 +11341,13 @@
         <v>0</v>
       </c>
       <c r="AD72" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AE72" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="AF72" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="AG72" s="1" t="s">
         <v>0</v>
@@ -11361,19 +11379,19 @@
         <v>160.0</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>0</v>
@@ -11442,7 +11460,7 @@
         <v>47</v>
       </c>
       <c r="AD73" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AE73" s="1" t="s">
         <v>0</v>
@@ -11451,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="AG73" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="AH73" s="1" t="s">
         <v>0</v>
@@ -11480,19 +11498,19 @@
         <v>205.0</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>0</v>
@@ -11504,7 +11522,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>0</v>
@@ -11561,7 +11579,7 @@
         <v>47</v>
       </c>
       <c r="AD74" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AE74" s="1" t="s">
         <v>0</v>
@@ -11570,7 +11588,7 @@
         <v>0</v>
       </c>
       <c r="AG74" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AH74" s="1" t="s">
         <v>0</v>
@@ -11599,19 +11617,19 @@
         <v>218.0</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>0</v>
@@ -11680,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="AD75" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AE75" s="1" t="s">
         <v>0</v>
@@ -11689,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="AG75" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AH75" s="1" t="s">
         <v>0</v>
@@ -11718,13 +11736,13 @@
         <v>161.0</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>0</v>
@@ -11739,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>0</v>
@@ -11748,7 +11766,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>0</v>
@@ -11799,13 +11817,13 @@
         <v>0</v>
       </c>
       <c r="AD76" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AE76" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AF76" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AG76" s="1" t="s">
         <v>0</v>
@@ -11837,13 +11855,13 @@
         <v>162.0</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>0</v>
@@ -11858,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>0</v>
@@ -11867,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>0</v>
@@ -11918,19 +11936,19 @@
         <v>0</v>
       </c>
       <c r="AD77" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AE77" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AF77" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AG77" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH77" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AI77" s="1" t="s">
         <v>0</v>
@@ -11956,13 +11974,13 @@
         <v>163.0</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>0</v>
@@ -11977,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>0</v>
@@ -11986,7 +12004,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>0</v>
@@ -12037,19 +12055,19 @@
         <v>0</v>
       </c>
       <c r="AD78" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AE78" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AF78" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AG78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AH78" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AI78" s="1" t="s">
         <v>0</v>
@@ -12075,13 +12093,13 @@
         <v>164.0</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>0</v>
@@ -12096,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>0</v>
@@ -12105,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>0</v>
@@ -12156,13 +12174,13 @@
         <v>0</v>
       </c>
       <c r="AD79" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="AE79" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AF79" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AG79" s="1" t="s">
         <v>0</v>
@@ -12194,7 +12212,7 @@
         <v>165.0</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>41</v>
@@ -12215,7 +12233,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>0</v>
@@ -12224,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>0</v>
@@ -12275,13 +12293,13 @@
         <v>0</v>
       </c>
       <c r="AD80" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AE80" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AF80" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AG80" s="1" t="s">
         <v>0</v>
@@ -12313,7 +12331,7 @@
         <v>166.0</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>41</v>
@@ -12334,7 +12352,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>0</v>
@@ -12343,7 +12361,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>0</v>
@@ -12394,13 +12412,13 @@
         <v>0</v>
       </c>
       <c r="AD81" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AE81" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AF81" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AG81" s="1" t="s">
         <v>0</v>
@@ -12432,7 +12450,7 @@
         <v>167.0</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>41</v>
@@ -12453,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>0</v>
@@ -12462,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>0</v>
@@ -12513,13 +12531,13 @@
         <v>0</v>
       </c>
       <c r="AD82" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AE82" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AF82" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AG82" s="1" t="s">
         <v>0</v>
@@ -12551,7 +12569,7 @@
         <v>168.0</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>41</v>
@@ -12572,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>0</v>
@@ -12581,7 +12599,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>0</v>
@@ -12632,13 +12650,13 @@
         <v>0</v>
       </c>
       <c r="AD83" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AE83" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AF83" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AG83" s="1" t="s">
         <v>0</v>
@@ -12670,19 +12688,19 @@
         <v>169.0</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>0</v>
@@ -12694,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>0</v>
@@ -12751,7 +12769,7 @@
         <v>47</v>
       </c>
       <c r="AD84" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AE84" s="1" t="s">
         <v>0</v>
@@ -12760,7 +12778,7 @@
         <v>0</v>
       </c>
       <c r="AG84" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AH84" s="1" t="s">
         <v>0</v>
@@ -12789,19 +12807,19 @@
         <v>170.0</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>0</v>
@@ -12813,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>0</v>
@@ -12870,7 +12888,7 @@
         <v>47</v>
       </c>
       <c r="AD85" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AE85" s="1" t="s">
         <v>0</v>
@@ -12879,7 +12897,7 @@
         <v>0</v>
       </c>
       <c r="AG85" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AH85" s="1" t="s">
         <v>0</v>
@@ -12908,19 +12926,19 @@
         <v>171.0</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>0</v>
@@ -12932,7 +12950,7 @@
         <v>0</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>0</v>
@@ -12989,7 +13007,7 @@
         <v>47</v>
       </c>
       <c r="AD86" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AE86" s="1" t="s">
         <v>0</v>
@@ -12998,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="AG86" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AH86" s="1" t="s">
         <v>0</v>
@@ -13027,19 +13045,19 @@
         <v>172.0</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>0</v>
@@ -13051,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>0</v>
@@ -13108,7 +13126,7 @@
         <v>47</v>
       </c>
       <c r="AD87" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="AE87" s="1" t="s">
         <v>0</v>
@@ -13117,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="AG87" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AH87" s="1" t="s">
         <v>0</v>
@@ -13146,19 +13164,19 @@
         <v>173.0</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>0</v>
@@ -13170,7 +13188,7 @@
         <v>0</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>0</v>
@@ -13227,7 +13245,7 @@
         <v>47</v>
       </c>
       <c r="AD88" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AE88" s="1" t="s">
         <v>0</v>
@@ -13236,7 +13254,7 @@
         <v>0</v>
       </c>
       <c r="AG88" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AH88" s="1" t="s">
         <v>0</v>
@@ -13265,19 +13283,19 @@
         <v>174.0</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>0</v>
@@ -13289,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>0</v>
@@ -13346,7 +13364,7 @@
         <v>47</v>
       </c>
       <c r="AD89" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="AE89" s="1" t="s">
         <v>0</v>
@@ -13355,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="AG89" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="AH89" s="1" t="s">
         <v>0</v>
@@ -13384,19 +13402,19 @@
         <v>175.0</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>0</v>
@@ -13408,7 +13426,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>0</v>
@@ -13465,7 +13483,7 @@
         <v>47</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AE90" s="1" t="s">
         <v>0</v>
@@ -13474,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="AG90" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AH90" s="1" t="s">
         <v>0</v>
@@ -13503,7 +13521,7 @@
         <v>176.0</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>41</v>
@@ -13524,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>0</v>
@@ -13533,7 +13551,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>0</v>
@@ -13584,13 +13602,13 @@
         <v>0</v>
       </c>
       <c r="AD91" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="AE91" s="1" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="AF91" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="AG91" s="1" t="s">
         <v>0</v>
@@ -13622,10 +13640,10 @@
         <v>176.0</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>0</v>
@@ -13741,7 +13759,7 @@
         <v>177.0</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>41</v>
@@ -13762,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>0</v>
@@ -13771,7 +13789,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>0</v>
@@ -13822,13 +13840,13 @@
         <v>0</v>
       </c>
       <c r="AD93" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="AF93" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AG93" s="1" t="s">
         <v>0</v>
@@ -13860,10 +13878,10 @@
         <v>177.0</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>0</v>
@@ -13979,19 +13997,19 @@
         <v>178.0</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>0</v>
@@ -14060,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AE95" s="1" t="s">
         <v>0</v>
@@ -14069,7 +14087,7 @@
         <v>0</v>
       </c>
       <c r="AG95" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AH95" s="1" t="s">
         <v>0</v>
@@ -14098,19 +14116,19 @@
         <v>179.0</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>0</v>
@@ -14122,7 +14140,7 @@
         <v>0</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>0</v>
@@ -14179,7 +14197,7 @@
         <v>47</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AE96" s="1" t="s">
         <v>0</v>
@@ -14188,7 +14206,7 @@
         <v>0</v>
       </c>
       <c r="AG96" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AH96" s="1" t="s">
         <v>0</v>
@@ -14217,19 +14235,19 @@
         <v>180.0</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>0</v>
@@ -14241,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>0</v>
@@ -14298,7 +14316,7 @@
         <v>47</v>
       </c>
       <c r="AD97" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AE97" s="1" t="s">
         <v>0</v>
@@ -14307,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="AG97" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AH97" s="1" t="s">
         <v>0</v>
@@ -14336,19 +14354,19 @@
         <v>181.0</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>0</v>
@@ -14360,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>0</v>
@@ -14417,7 +14435,7 @@
         <v>47</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AE98" s="1" t="s">
         <v>0</v>
@@ -14426,7 +14444,7 @@
         <v>0</v>
       </c>
       <c r="AG98" s="1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AH98" s="1" t="s">
         <v>0</v>
@@ -14455,19 +14473,19 @@
         <v>182.0</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>0</v>
@@ -14479,7 +14497,7 @@
         <v>0</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>0</v>
@@ -14536,7 +14554,7 @@
         <v>47</v>
       </c>
       <c r="AD99" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="AE99" s="1" t="s">
         <v>0</v>
@@ -14545,7 +14563,7 @@
         <v>0</v>
       </c>
       <c r="AG99" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="AH99" s="1" t="s">
         <v>0</v>
@@ -14574,19 +14592,19 @@
         <v>183.0</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>0</v>
@@ -14598,7 +14616,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>0</v>
@@ -14655,7 +14673,7 @@
         <v>47</v>
       </c>
       <c r="AD100" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AE100" s="1" t="s">
         <v>0</v>
@@ -14664,7 +14682,7 @@
         <v>0</v>
       </c>
       <c r="AG100" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AH100" s="1" t="s">
         <v>0</v>
@@ -14693,19 +14711,19 @@
         <v>184.0</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>0</v>
@@ -14717,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>0</v>
@@ -14774,7 +14792,7 @@
         <v>47</v>
       </c>
       <c r="AD101" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AE101" s="1" t="s">
         <v>0</v>
@@ -14783,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="AG101" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AH101" s="1" t="s">
         <v>0</v>
@@ -14812,13 +14830,13 @@
         <v>100.0</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>0</v>
@@ -14827,7 +14845,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>0</v>
@@ -14931,22 +14949,22 @@
         <v>100.0</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>0</v>
@@ -15033,10 +15051,10 @@
         <v>0</v>
       </c>
       <c r="AK103" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AL103" s="1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AM103" s="1" t="n">
         <v>1102.0</v>
@@ -15050,19 +15068,19 @@
         <v>185.0</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>0</v>
@@ -15074,7 +15092,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>0</v>
@@ -15131,7 +15149,7 @@
         <v>47</v>
       </c>
       <c r="AD104" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="AE104" s="1" t="s">
         <v>0</v>
@@ -15140,7 +15158,7 @@
         <v>0</v>
       </c>
       <c r="AG104" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="AH104" s="1" t="s">
         <v>0</v>
@@ -15169,19 +15187,19 @@
         <v>186.0</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>0</v>
@@ -15193,7 +15211,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>0</v>
@@ -15250,7 +15268,7 @@
         <v>47</v>
       </c>
       <c r="AD105" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AE105" s="1" t="s">
         <v>0</v>
@@ -15259,7 +15277,7 @@
         <v>0</v>
       </c>
       <c r="AG105" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AH105" s="1" t="s">
         <v>0</v>
@@ -15288,19 +15306,19 @@
         <v>187.0</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>0</v>
@@ -15312,7 +15330,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>0</v>
@@ -15369,7 +15387,7 @@
         <v>47</v>
       </c>
       <c r="AD106" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="AE106" s="1" t="s">
         <v>0</v>
@@ -15378,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="AG106" s="1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="AH106" s="1" t="s">
         <v>0</v>
@@ -15407,19 +15425,19 @@
         <v>188.0</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>0</v>
@@ -15488,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="AD107" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AE107" s="1" t="s">
         <v>0</v>
@@ -15497,7 +15515,7 @@
         <v>0</v>
       </c>
       <c r="AG107" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AH107" s="1" t="s">
         <v>0</v>
@@ -15526,19 +15544,19 @@
         <v>189.0</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>0</v>
@@ -15607,7 +15625,7 @@
         <v>0</v>
       </c>
       <c r="AD108" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AE108" s="1" t="s">
         <v>0</v>
@@ -15616,7 +15634,7 @@
         <v>0</v>
       </c>
       <c r="AG108" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="AH108" s="1" t="s">
         <v>0</v>
@@ -15645,19 +15663,19 @@
         <v>190.0</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>0</v>
@@ -15726,7 +15744,7 @@
         <v>0</v>
       </c>
       <c r="AD109" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="AE109" s="1" t="s">
         <v>0</v>
@@ -15735,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="AG109" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AH109" s="1" t="s">
         <v>0</v>
@@ -15764,19 +15782,19 @@
         <v>191.0</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>0</v>
@@ -15845,7 +15863,7 @@
         <v>0</v>
       </c>
       <c r="AD110" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AE110" s="1" t="s">
         <v>0</v>
@@ -15854,7 +15872,7 @@
         <v>0</v>
       </c>
       <c r="AG110" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AH110" s="1" t="s">
         <v>0</v>
@@ -15883,19 +15901,19 @@
         <v>192.0</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>0</v>
@@ -15964,7 +15982,7 @@
         <v>0</v>
       </c>
       <c r="AD111" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AE111" s="1" t="s">
         <v>0</v>
@@ -15973,7 +15991,7 @@
         <v>0</v>
       </c>
       <c r="AG111" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="AH111" s="1" t="s">
         <v>0</v>
@@ -16002,19 +16020,19 @@
         <v>193.0</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>0</v>
@@ -16083,7 +16101,7 @@
         <v>0</v>
       </c>
       <c r="AD112" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="AE112" s="1" t="s">
         <v>0</v>
@@ -16092,7 +16110,7 @@
         <v>0</v>
       </c>
       <c r="AG112" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AH112" s="1" t="s">
         <v>0</v>
@@ -16121,19 +16139,19 @@
         <v>194.0</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>0</v>
@@ -16202,7 +16220,7 @@
         <v>0</v>
       </c>
       <c r="AD113" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AE113" s="1" t="s">
         <v>0</v>
@@ -16211,7 +16229,7 @@
         <v>0</v>
       </c>
       <c r="AG113" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AH113" s="1" t="s">
         <v>0</v>
@@ -16240,19 +16258,19 @@
         <v>195.0</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>0</v>
@@ -16321,7 +16339,7 @@
         <v>0</v>
       </c>
       <c r="AD114" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AE114" s="1" t="s">
         <v>0</v>
@@ -16330,7 +16348,7 @@
         <v>0</v>
       </c>
       <c r="AG114" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AH114" s="1" t="s">
         <v>0</v>
@@ -16359,19 +16377,19 @@
         <v>196.0</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>0</v>
@@ -16440,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="AD115" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="AE115" s="1" t="s">
         <v>0</v>
@@ -16449,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="AG115" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="AH115" s="1" t="s">
         <v>0</v>
@@ -16478,19 +16496,19 @@
         <v>197.0</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>0</v>
@@ -16559,7 +16577,7 @@
         <v>0</v>
       </c>
       <c r="AD116" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AE116" s="1" t="s">
         <v>0</v>
@@ -16568,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="AG116" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="AH116" s="1" t="s">
         <v>0</v>
@@ -16597,19 +16615,19 @@
         <v>198.0</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>0</v>
@@ -16678,7 +16696,7 @@
         <v>0</v>
       </c>
       <c r="AD117" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="AE117" s="1" t="s">
         <v>0</v>
@@ -16687,7 +16705,7 @@
         <v>0</v>
       </c>
       <c r="AG117" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="AH117" s="1" t="s">
         <v>0</v>
@@ -16716,19 +16734,19 @@
         <v>199.0</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>0</v>
@@ -16740,7 +16758,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>0</v>
@@ -16797,7 +16815,7 @@
         <v>47</v>
       </c>
       <c r="AD118" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AE118" s="1" t="s">
         <v>0</v>
@@ -16806,7 +16824,7 @@
         <v>0</v>
       </c>
       <c r="AG118" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AH118" s="1" t="s">
         <v>0</v>
@@ -16835,19 +16853,19 @@
         <v>200.0</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>0</v>
@@ -16859,7 +16877,7 @@
         <v>0</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>0</v>
@@ -16916,7 +16934,7 @@
         <v>47</v>
       </c>
       <c r="AD119" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="AE119" s="1" t="s">
         <v>0</v>
@@ -16925,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="AG119" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AH119" s="1" t="s">
         <v>0</v>
@@ -16954,19 +16972,19 @@
         <v>201.0</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>0</v>
@@ -16978,7 +16996,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L120" s="1" t="s">
         <v>0</v>
@@ -17035,7 +17053,7 @@
         <v>47</v>
       </c>
       <c r="AD120" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="AE120" s="1" t="s">
         <v>0</v>
@@ -17044,7 +17062,7 @@
         <v>0</v>
       </c>
       <c r="AG120" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="AH120" s="1" t="s">
         <v>0</v>
@@ -17073,19 +17091,19 @@
         <v>202.0</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>0</v>
@@ -17097,7 +17115,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L121" s="1" t="s">
         <v>0</v>
@@ -17154,7 +17172,7 @@
         <v>47</v>
       </c>
       <c r="AD121" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AE121" s="1" t="s">
         <v>0</v>
@@ -17163,7 +17181,7 @@
         <v>0</v>
       </c>
       <c r="AG121" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AH121" s="1" t="s">
         <v>0</v>
@@ -17192,19 +17210,19 @@
         <v>203.0</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>0</v>
@@ -17216,7 +17234,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L122" s="1" t="s">
         <v>0</v>
@@ -17273,7 +17291,7 @@
         <v>47</v>
       </c>
       <c r="AD122" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="AE122" s="1" t="s">
         <v>0</v>
@@ -17282,7 +17300,7 @@
         <v>0</v>
       </c>
       <c r="AG122" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="AH122" s="1" t="s">
         <v>0</v>
@@ -17311,19 +17329,19 @@
         <v>204.0</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>0</v>
@@ -17392,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="AD123" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="AE123" s="1" t="s">
         <v>0</v>
@@ -17401,7 +17419,7 @@
         <v>0</v>
       </c>
       <c r="AG123" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AH123" s="1" t="s">
         <v>0</v>
@@ -17430,19 +17448,19 @@
         <v>206.0</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>0</v>
@@ -17511,7 +17529,7 @@
         <v>0</v>
       </c>
       <c r="AD124" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="AE124" s="1" t="s">
         <v>0</v>
@@ -17520,7 +17538,7 @@
         <v>0</v>
       </c>
       <c r="AG124" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="AH124" s="1" t="s">
         <v>0</v>
@@ -17549,19 +17567,19 @@
         <v>207.0</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>0</v>
@@ -17630,7 +17648,7 @@
         <v>0</v>
       </c>
       <c r="AD125" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="AE125" s="1" t="s">
         <v>0</v>
@@ -17639,7 +17657,7 @@
         <v>0</v>
       </c>
       <c r="AG125" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="AH125" s="1" t="s">
         <v>0</v>
@@ -17668,19 +17686,19 @@
         <v>208.0</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>0</v>
@@ -17749,7 +17767,7 @@
         <v>0</v>
       </c>
       <c r="AD126" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="AE126" s="1" t="s">
         <v>0</v>
@@ -17758,7 +17776,7 @@
         <v>0</v>
       </c>
       <c r="AG126" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AH126" s="1" t="s">
         <v>0</v>
@@ -17787,19 +17805,19 @@
         <v>209.0</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>0</v>
@@ -17868,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="AD127" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AE127" s="1" t="s">
         <v>0</v>
@@ -17877,7 +17895,7 @@
         <v>0</v>
       </c>
       <c r="AG127" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="AH127" s="1" t="s">
         <v>0</v>
@@ -17906,19 +17924,19 @@
         <v>210.0</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>0</v>
@@ -17987,7 +18005,7 @@
         <v>0</v>
       </c>
       <c r="AD128" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="AE128" s="1" t="s">
         <v>0</v>
@@ -17996,7 +18014,7 @@
         <v>0</v>
       </c>
       <c r="AG128" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="AH128" s="1" t="s">
         <v>0</v>
@@ -18025,19 +18043,19 @@
         <v>211.0</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>0</v>
@@ -18106,7 +18124,7 @@
         <v>0</v>
       </c>
       <c r="AD129" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="AE129" s="1" t="s">
         <v>0</v>
@@ -18115,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="AG129" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="AH129" s="1" t="s">
         <v>0</v>
@@ -18144,19 +18162,19 @@
         <v>212.0</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>0</v>
@@ -18225,7 +18243,7 @@
         <v>0</v>
       </c>
       <c r="AD130" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="AE130" s="1" t="s">
         <v>0</v>
@@ -18234,7 +18252,7 @@
         <v>0</v>
       </c>
       <c r="AG130" s="1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AH130" s="1" t="s">
         <v>0</v>
@@ -18263,19 +18281,19 @@
         <v>213.0</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>0</v>
@@ -18287,7 +18305,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L131" s="1" t="s">
         <v>0</v>
@@ -18344,7 +18362,7 @@
         <v>47</v>
       </c>
       <c r="AD131" s="1" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AE131" s="1" t="s">
         <v>0</v>
@@ -18353,7 +18371,7 @@
         <v>0</v>
       </c>
       <c r="AG131" s="1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="AH131" s="1" t="s">
         <v>0</v>
@@ -18382,19 +18400,19 @@
         <v>214.0</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>0</v>
@@ -18463,7 +18481,7 @@
         <v>0</v>
       </c>
       <c r="AD132" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="AE132" s="1" t="s">
         <v>0</v>
@@ -18472,7 +18490,7 @@
         <v>0</v>
       </c>
       <c r="AG132" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="AH132" s="1" t="s">
         <v>0</v>
@@ -18501,19 +18519,19 @@
         <v>215.0</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>0</v>
@@ -18525,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L133" s="1" t="s">
         <v>0</v>
@@ -18582,7 +18600,7 @@
         <v>47</v>
       </c>
       <c r="AD133" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="AE133" s="1" t="s">
         <v>0</v>
@@ -18591,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="AG133" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="AH133" s="1" t="s">
         <v>0</v>
@@ -18620,19 +18638,19 @@
         <v>216.0</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>0</v>
@@ -18644,7 +18662,7 @@
         <v>0</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L134" s="1" t="s">
         <v>0</v>
@@ -18701,7 +18719,7 @@
         <v>47</v>
       </c>
       <c r="AD134" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="AE134" s="1" t="s">
         <v>0</v>
@@ -18710,7 +18728,7 @@
         <v>0</v>
       </c>
       <c r="AG134" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="AH134" s="1" t="s">
         <v>0</v>
@@ -18739,19 +18757,19 @@
         <v>217.0</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>0</v>
@@ -18763,7 +18781,7 @@
         <v>0</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L135" s="1" t="s">
         <v>0</v>
@@ -18820,7 +18838,7 @@
         <v>47</v>
       </c>
       <c r="AD135" s="1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="AE135" s="1" t="s">
         <v>0</v>
@@ -18829,7 +18847,7 @@
         <v>0</v>
       </c>
       <c r="AG135" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="AH135" s="1" t="s">
         <v>0</v>
@@ -18858,19 +18876,19 @@
         <v>219.0</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>0</v>
@@ -18882,7 +18900,7 @@
         <v>0</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L136" s="1" t="s">
         <v>0</v>
@@ -18939,7 +18957,7 @@
         <v>47</v>
       </c>
       <c r="AD136" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="AE136" s="1" t="s">
         <v>0</v>
@@ -18948,7 +18966,7 @@
         <v>0</v>
       </c>
       <c r="AG136" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="AH136" s="1" t="s">
         <v>0</v>
@@ -18977,19 +18995,19 @@
         <v>220.0</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>44</v>
@@ -19010,7 +19028,7 @@
         <v>0</v>
       </c>
       <c r="N137" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O137" s="1" t="s">
         <v>0</v>
@@ -19096,19 +19114,19 @@
         <v>221.0</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>44</v>
@@ -19129,7 +19147,7 @@
         <v>0</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O138" s="1" t="s">
         <v>0</v>
@@ -19215,13 +19233,13 @@
         <v>222.0</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>0</v>
@@ -19236,7 +19254,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K139" s="1" t="s">
         <v>0</v>
@@ -19245,7 +19263,7 @@
         <v>0</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N139" s="1" t="s">
         <v>0</v>
@@ -19296,10 +19314,10 @@
         <v>0</v>
       </c>
       <c r="AD139" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="AE139" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="AF139" s="1" t="s">
         <v>0</v>
@@ -19334,10 +19352,10 @@
         <v>222.0</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>0</v>
@@ -19453,19 +19471,19 @@
         <v>224.0</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>44</v>
@@ -19486,7 +19504,7 @@
         <v>0</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O141" s="1" t="s">
         <v>0</v>
@@ -19572,19 +19590,19 @@
         <v>225.0</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>44</v>
@@ -19605,7 +19623,7 @@
         <v>0</v>
       </c>
       <c r="N142" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="O142" s="1" t="s">
         <v>0</v>
@@ -19691,19 +19709,19 @@
         <v>226.0</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>44</v>
@@ -19810,13 +19828,13 @@
         <v>223.0</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>0</v>
@@ -19831,7 +19849,7 @@
         <v>0</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>0</v>
@@ -19840,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N144" s="1" t="s">
         <v>0</v>
@@ -19891,10 +19909,10 @@
         <v>0</v>
       </c>
       <c r="AD144" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="AE144" s="1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="AF144" s="1" t="s">
         <v>0</v>
@@ -19929,10 +19947,10 @@
         <v>223.0</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>0</v>
@@ -20048,19 +20066,19 @@
         <v>227.0</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>0</v>
@@ -20129,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="AD146" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AE146" s="1" t="s">
         <v>0</v>
@@ -20138,7 +20156,7 @@
         <v>0</v>
       </c>
       <c r="AG146" s="1" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AH146" s="1" t="s">
         <v>0</v>
@@ -20167,13 +20185,13 @@
         <v>228.0</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>0</v>
@@ -20188,7 +20206,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>0</v>
@@ -20197,7 +20215,7 @@
         <v>0</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N147" s="1" t="s">
         <v>0</v>
@@ -20248,10 +20266,10 @@
         <v>0</v>
       </c>
       <c r="AD147" s="1" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="AE147" s="1" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="AF147" s="1" t="s">
         <v>0</v>
@@ -20286,10 +20304,10 @@
         <v>228.0</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>0</v>
@@ -20405,13 +20423,13 @@
         <v>229.0</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>0</v>
@@ -20426,7 +20444,7 @@
         <v>0</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K149" s="1" t="s">
         <v>0</v>
@@ -20435,7 +20453,7 @@
         <v>0</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>0</v>
@@ -20486,10 +20504,10 @@
         <v>0</v>
       </c>
       <c r="AD149" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="AE149" s="1" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="AF149" s="1" t="s">
         <v>0</v>
@@ -20524,10 +20542,10 @@
         <v>229.0</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>0</v>
@@ -20643,13 +20661,13 @@
         <v>230.0</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>0</v>
@@ -20664,7 +20682,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>0</v>
@@ -20673,7 +20691,7 @@
         <v>0</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>0</v>
@@ -20762,10 +20780,10 @@
         <v>230.0</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>0</v>
@@ -20789,7 +20807,7 @@
         <v>0</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>0</v>
@@ -20881,10 +20899,10 @@
         <v>231.0</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>0</v>
@@ -20893,7 +20911,7 @@
         <v>0</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>0</v>
@@ -20905,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="L153" s="1" t="s">
         <v>0</v>
@@ -20962,7 +20980,7 @@
         <v>47</v>
       </c>
       <c r="AD153" s="1" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AE153" s="1" t="s">
         <v>0</v>
@@ -20971,7 +20989,7 @@
         <v>0</v>
       </c>
       <c r="AG153" s="1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="AH153" s="1" t="s">
         <v>0</v>
@@ -21000,7 +21018,7 @@
         <v>232.0</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>41</v>
@@ -21021,7 +21039,7 @@
         <v>0</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K154" s="1" t="s">
         <v>0</v>
@@ -21030,7 +21048,7 @@
         <v>0</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N154" s="1" t="s">
         <v>0</v>
@@ -21119,19 +21137,19 @@
         <v>235.0</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>0</v>
@@ -21200,7 +21218,7 @@
         <v>0</v>
       </c>
       <c r="AD155" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AE155" s="1" t="s">
         <v>0</v>
@@ -21209,7 +21227,7 @@
         <v>0</v>
       </c>
       <c r="AG155" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="AH155" s="1" t="s">
         <v>0</v>
@@ -21238,19 +21256,19 @@
         <v>236.0</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>0</v>
@@ -21319,7 +21337,7 @@
         <v>0</v>
       </c>
       <c r="AD156" s="1" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="AE156" s="1" t="s">
         <v>0</v>
@@ -21328,7 +21346,7 @@
         <v>0</v>
       </c>
       <c r="AG156" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="AH156" s="1" t="s">
         <v>0</v>
@@ -21357,20 +21375,20 @@
         <v>237.0</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>526</v>
-      </c>
       <c r="H157" s="1" t="s">
         <v>0</v>
       </c>
@@ -21438,7 +21456,7 @@
         <v>0</v>
       </c>
       <c r="AD157" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="AE157" s="1" t="s">
         <v>0</v>
@@ -21447,7 +21465,7 @@
         <v>0</v>
       </c>
       <c r="AG157" s="1" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="AH157" s="1" t="s">
         <v>0</v>
@@ -21476,13 +21494,13 @@
         <v>238.0</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>0</v>
@@ -21497,7 +21515,7 @@
         <v>0</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K158" s="1" t="s">
         <v>0</v>
@@ -21506,7 +21524,7 @@
         <v>0</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N158" s="1" t="s">
         <v>0</v>
@@ -21557,10 +21575,10 @@
         <v>0</v>
       </c>
       <c r="AD158" s="1" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="AE158" s="1" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="AF158" s="1" t="s">
         <v>0</v>
@@ -21595,10 +21613,10 @@
         <v>238.0</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>0</v>
@@ -21714,19 +21732,19 @@
         <v>239.0</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>0</v>
@@ -21795,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="AD160" s="1" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="AE160" s="1" t="s">
         <v>0</v>
@@ -21804,7 +21822,7 @@
         <v>0</v>
       </c>
       <c r="AG160" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AH160" s="1" t="s">
         <v>0</v>
@@ -21833,19 +21851,19 @@
         <v>240.0</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>0</v>
@@ -21914,7 +21932,7 @@
         <v>0</v>
       </c>
       <c r="AD161" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AE161" s="1" t="s">
         <v>0</v>
@@ -21923,7 +21941,7 @@
         <v>0</v>
       </c>
       <c r="AG161" s="1" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AH161" s="1" t="s">
         <v>0</v>
@@ -21952,10 +21970,10 @@
         <v>241.0</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>0</v>
@@ -21964,7 +21982,7 @@
         <v>0</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>44</v>
@@ -22071,10 +22089,10 @@
         <v>242.0</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>0</v>
@@ -22083,7 +22101,7 @@
         <v>0</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>44</v>
@@ -22190,7 +22208,7 @@
         <v>243.0</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>41</v>
@@ -22211,7 +22229,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="K164" s="1" t="s">
         <v>0</v>
@@ -22220,7 +22238,7 @@
         <v>0</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N164" s="1" t="s">
         <v>0</v>
@@ -22271,13 +22289,13 @@
         <v>0</v>
       </c>
       <c r="AD164" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="AE164" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="AF164" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AG164" s="1" t="s">
         <v>0</v>
@@ -22309,7 +22327,7 @@
         <v>244.0</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>41</v>
@@ -22330,7 +22348,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K165" s="1" t="s">
         <v>0</v>
@@ -22339,7 +22357,7 @@
         <v>0</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N165" s="1" t="s">
         <v>0</v>
@@ -22390,13 +22408,13 @@
         <v>0</v>
       </c>
       <c r="AD165" s="1" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="AE165" s="1" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="AF165" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="AG165" s="1" t="s">
         <v>0</v>
@@ -22428,7 +22446,7 @@
         <v>245.0</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>41</v>
@@ -22449,7 +22467,7 @@
         <v>0</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K166" s="1" t="s">
         <v>0</v>
@@ -22458,7 +22476,7 @@
         <v>0</v>
       </c>
       <c r="M166" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N166" s="1" t="s">
         <v>0</v>
@@ -22509,13 +22527,13 @@
         <v>0</v>
       </c>
       <c r="AD166" s="1" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="AE166" s="1" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="AF166" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="AG166" s="1" t="s">
         <v>0</v>
@@ -22547,7 +22565,7 @@
         <v>246.0</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>41</v>
@@ -22568,7 +22586,7 @@
         <v>0</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K167" s="1" t="s">
         <v>0</v>
@@ -22577,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N167" s="1" t="s">
         <v>0</v>
@@ -22628,13 +22646,13 @@
         <v>0</v>
       </c>
       <c r="AD167" s="1" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="AE167" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="AF167" s="1" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="AG167" s="1" t="s">
         <v>0</v>
@@ -22666,7 +22684,7 @@
         <v>247.0</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>41</v>
@@ -22687,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K168" s="1" t="s">
         <v>0</v>
@@ -22696,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N168" s="1" t="s">
         <v>0</v>
@@ -22747,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="AD168" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="AE168" s="1" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="AF168" s="1" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="AG168" s="1" t="s">
         <v>0</v>
@@ -22785,7 +22803,7 @@
         <v>248.0</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>41</v>
@@ -22806,7 +22824,7 @@
         <v>0</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K169" s="1" t="s">
         <v>0</v>
@@ -22815,7 +22833,7 @@
         <v>0</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N169" s="1" t="s">
         <v>0</v>
@@ -22866,13 +22884,13 @@
         <v>0</v>
       </c>
       <c r="AD169" s="1" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="AE169" s="1" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="AF169" s="1" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="AG169" s="1" t="s">
         <v>0</v>
@@ -22904,7 +22922,7 @@
         <v>249.0</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>41</v>
@@ -22925,7 +22943,7 @@
         <v>0</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>0</v>
@@ -22934,7 +22952,7 @@
         <v>0</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N170" s="1" t="s">
         <v>0</v>
@@ -22985,13 +23003,13 @@
         <v>0</v>
       </c>
       <c r="AD170" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="AE170" s="1" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="AF170" s="1" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="AG170" s="1" t="s">
         <v>0</v>
@@ -23023,7 +23041,7 @@
         <v>250.0</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>41</v>
@@ -23044,7 +23062,7 @@
         <v>0</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K171" s="1" t="s">
         <v>0</v>
@@ -23053,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N171" s="1" t="s">
         <v>0</v>
@@ -23104,13 +23122,13 @@
         <v>0</v>
       </c>
       <c r="AD171" s="1" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="AE171" s="1" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="AF171" s="1" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="AG171" s="1" t="s">
         <v>0</v>
@@ -23142,7 +23160,7 @@
         <v>251.0</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>41</v>
@@ -23163,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K172" s="1" t="s">
         <v>0</v>
@@ -23172,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N172" s="1" t="s">
         <v>0</v>
@@ -23223,13 +23241,13 @@
         <v>0</v>
       </c>
       <c r="AD172" s="1" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="AE172" s="1" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="AF172" s="1" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="AG172" s="1" t="s">
         <v>0</v>
@@ -23261,7 +23279,7 @@
         <v>252.0</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>41</v>
@@ -23282,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K173" s="1" t="s">
         <v>0</v>
@@ -23291,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N173" s="1" t="s">
         <v>0</v>
@@ -23342,13 +23360,13 @@
         <v>0</v>
       </c>
       <c r="AD173" s="1" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="AE173" s="1" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="AF173" s="1" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="AG173" s="1" t="s">
         <v>0</v>
@@ -23380,7 +23398,7 @@
         <v>253.0</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>41</v>
@@ -23401,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K174" s="1" t="s">
         <v>0</v>
@@ -23410,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N174" s="1" t="s">
         <v>0</v>
@@ -23461,13 +23479,13 @@
         <v>0</v>
       </c>
       <c r="AD174" s="1" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="AE174" s="1" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="AF174" s="1" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="AG174" s="1" t="s">
         <v>0</v>
@@ -23499,7 +23517,7 @@
         <v>254.0</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>41</v>
@@ -23520,7 +23538,7 @@
         <v>0</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K175" s="1" t="s">
         <v>0</v>
@@ -23529,7 +23547,7 @@
         <v>0</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N175" s="1" t="s">
         <v>0</v>
@@ -23580,13 +23598,13 @@
         <v>0</v>
       </c>
       <c r="AD175" s="1" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="AE175" s="1" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="AF175" s="1" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="AG175" s="1" t="s">
         <v>0</v>
@@ -23618,7 +23636,7 @@
         <v>255.0</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>41</v>
@@ -23639,7 +23657,7 @@
         <v>0</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K176" s="1" t="s">
         <v>0</v>
@@ -23648,7 +23666,7 @@
         <v>0</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N176" s="1" t="s">
         <v>0</v>
@@ -23702,10 +23720,10 @@
         <v>0</v>
       </c>
       <c r="AE176" s="1" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="AF176" s="1" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AG176" s="1" t="s">
         <v>0</v>
@@ -23737,7 +23755,7 @@
         <v>256.0</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>41</v>
@@ -23758,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K177" s="1" t="s">
         <v>0</v>
@@ -23767,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N177" s="1" t="s">
         <v>0</v>
@@ -23818,13 +23836,13 @@
         <v>0</v>
       </c>
       <c r="AD177" s="1" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AE177" s="1" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="AF177" s="1" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="AG177" s="1" t="s">
         <v>0</v>
@@ -23856,7 +23874,7 @@
         <v>257.0</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>41</v>
@@ -23877,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K178" s="1" t="s">
         <v>0</v>
@@ -23886,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N178" s="1" t="s">
         <v>0</v>
@@ -23937,13 +23955,13 @@
         <v>0</v>
       </c>
       <c r="AD178" s="1" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AE178" s="1" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="AF178" s="1" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="AG178" s="1" t="s">
         <v>0</v>
@@ -23975,7 +23993,7 @@
         <v>258.0</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>41</v>
@@ -23996,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K179" s="1" t="s">
         <v>0</v>
@@ -24005,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N179" s="1" t="s">
         <v>0</v>
@@ -24056,13 +24074,13 @@
         <v>0</v>
       </c>
       <c r="AD179" s="1" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="AE179" s="1" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="AF179" s="1" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="AG179" s="1" t="s">
         <v>0</v>
@@ -24094,7 +24112,7 @@
         <v>259.0</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>41</v>
@@ -24115,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K180" s="1" t="s">
         <v>0</v>
@@ -24124,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N180" s="1" t="s">
         <v>0</v>
@@ -24175,13 +24193,13 @@
         <v>0</v>
       </c>
       <c r="AD180" s="1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="AE180" s="1" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="AF180" s="1" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="AG180" s="1" t="s">
         <v>0</v>
@@ -24213,7 +24231,7 @@
         <v>260.0</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>41</v>
@@ -24234,7 +24252,7 @@
         <v>0</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K181" s="1" t="s">
         <v>0</v>
@@ -24243,7 +24261,7 @@
         <v>0</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="N181" s="1" t="s">
         <v>0</v>
@@ -24294,13 +24312,13 @@
         <v>0</v>
       </c>
       <c r="AD181" s="1" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="AE181" s="1" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="AF181" s="1" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="AG181" s="1" t="s">
         <v>0</v>
